--- a/testfolder/2058-004-433 AJM Baseline.stats.xlsx
+++ b/testfolder/2058-004-433 AJM Baseline.stats.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">02</t>
   </si>
   <si>
-    <t xml:space="preserve">vie-sáb</t>
+    <t xml:space="preserve">Fri-Sat</t>
   </si>
   <si>
     <t xml:space="preserve">W</t>
@@ -73,25 +73,25 @@
     <t xml:space="preserve">Dia</t>
   </si>
   <si>
-    <t xml:space="preserve">sáb</t>
+    <t xml:space="preserve">Sat</t>
   </si>
   <si>
     <t xml:space="preserve">03</t>
   </si>
   <si>
-    <t xml:space="preserve">sáb-dom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom</t>
+    <t xml:space="preserve">Sat-Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun</t>
   </si>
   <si>
     <t xml:space="preserve">04</t>
   </si>
   <si>
-    <t xml:space="preserve">dom-lun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lun</t>
+    <t xml:space="preserve">Sun-Mon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mon</t>
   </si>
   <si>
     <t xml:space="preserve">drop</t>
@@ -520,7 +520,7 @@
     <t xml:space="preserve">durWmax_24</t>
   </si>
   <si>
-    <t xml:space="preserve">sáb &gt; sáb-dom</t>
+    <t xml:space="preserve">Sat &gt; Sat-Sun</t>
   </si>
   <si>
     <t xml:space="preserve">02:46</t>
@@ -529,7 +529,7 @@
     <t xml:space="preserve">10:48</t>
   </si>
   <si>
-    <t xml:space="preserve">dom &gt; dom-lun</t>
+    <t xml:space="preserve">Sun &gt; Sun-Mon</t>
   </si>
   <si>
     <t xml:space="preserve">03:46</t>
@@ -538,19 +538,19 @@
     <t xml:space="preserve">21:30</t>
   </si>
   <si>
-    <t xml:space="preserve">vie-sáb &gt; sáb</t>
+    <t xml:space="preserve">Fri-Sat &gt; Sat</t>
   </si>
   <si>
     <t xml:space="preserve">08:26</t>
   </si>
   <si>
-    <t xml:space="preserve">sáb-dom &gt; dom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-lun &gt; lun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:13</t>
+    <t xml:space="preserve">Sat-Sun &gt; Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun-Mon &gt; Mon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:07</t>
   </si>
 </sst>
 </file>
@@ -901,7 +901,7 @@
     <col min="6" max="6" width="7.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="7.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="6.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="8.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="7.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="8.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
@@ -942,16 +942,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>41916.0743055556</v>
+        <v>41915.8611111111</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -960,13 +960,13 @@
         <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>1.783</v>
+        <v>20.667</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -974,16 +974,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>41916.1611111111</v>
+        <v>41915.9194444444</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>54.1</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -992,13 +992,13 @@
         <v>13</v>
       </c>
       <c r="H3" t="n">
-        <v>3.867</v>
+        <v>22.067</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -1006,16 +1006,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>41916.1805555556</v>
+        <v>41915.9340277778</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1024,13 +1024,13 @@
         <v>13</v>
       </c>
       <c r="H4" t="n">
-        <v>4.333</v>
+        <v>22.417</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -1038,16 +1038,16 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>41916.2548611111</v>
+        <v>41915.9402777778</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>29.4</v>
+        <v>136.1</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1056,13 +1056,13 @@
         <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>6.117</v>
+        <v>22.567</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -1070,16 +1070,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>41916.2631944444</v>
+        <v>41915.9520833333</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -1088,13 +1088,13 @@
         <v>13</v>
       </c>
       <c r="H6" t="n">
-        <v>6.317</v>
+        <v>22.85</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1102,16 +1102,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>41916.2840277778</v>
+        <v>41915.9694444444</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>81.2</v>
+        <v>33.7</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -1120,13 +1120,13 @@
         <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>6.817</v>
+        <v>23.267</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -1134,16 +1134,16 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>41916.2965277778</v>
+        <v>41915.9791666667</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -1152,13 +1152,13 @@
         <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>7.117</v>
+        <v>23.5</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -1166,16 +1166,16 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>41916.3006944444</v>
+        <v>41915.9958333333</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="E9" t="n">
-        <v>42.8</v>
+        <v>634.4</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1184,13 +1184,13 @@
         <v>13</v>
       </c>
       <c r="H9" t="n">
-        <v>7.217</v>
+        <v>23.9</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -1198,16 +1198,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>41916.3041666667</v>
+        <v>41916.0506944444</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E10" t="n">
-        <v>10.8</v>
+        <v>6.5</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1216,13 +1216,13 @@
         <v>13</v>
       </c>
       <c r="H10" t="n">
-        <v>7.3</v>
+        <v>1.217</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1230,16 +1230,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>41916.3479166667</v>
+        <v>41916.06875</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>42.4</v>
+        <v>87.9</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1248,13 +1248,13 @@
         <v>13</v>
       </c>
       <c r="H11" t="n">
-        <v>8.35</v>
+        <v>1.65</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1262,16 +1262,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>41916.3513888889</v>
+        <v>41916.0743055556</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E12" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1280,13 +1280,13 @@
         <v>13</v>
       </c>
       <c r="H12" t="n">
-        <v>8.433</v>
+        <v>1.783</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1294,31 +1294,31 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>41916.45</v>
+        <v>41916.1611111111</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="E13" t="n">
-        <v>139.5</v>
+        <v>54.1</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>10.8</v>
+        <v>3.867</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1326,31 +1326,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>41916.5083333333</v>
+        <v>41916.1805555556</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="E14" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>12.2</v>
+        <v>4.333</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1358,31 +1358,31 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>41916.5138888889</v>
+        <v>41916.2548611111</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
-        <v>56.7</v>
+        <v>29.4</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>12.333</v>
+        <v>6.117</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J15" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1390,31 +1390,31 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>41916.5201388889</v>
+        <v>41916.2631944444</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E16" t="n">
-        <v>7.9</v>
+        <v>4.6</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
       <c r="H16" t="n">
-        <v>12.483</v>
+        <v>6.317</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J16" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1422,31 +1422,31 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>41916.5756944444</v>
+        <v>41916.2840277778</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E17" t="n">
-        <v>37.8</v>
+        <v>81.2</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
       <c r="H17" t="n">
-        <v>13.817</v>
+        <v>6.817</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J17" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1454,31 +1454,31 @@
         <v>10</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>41916.5826388889</v>
+        <v>41916.2965277778</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>9.2</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
       </c>
       <c r="H18" t="n">
-        <v>13.983</v>
+        <v>7.117</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1486,31 +1486,31 @@
         <v>10</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>41916.6097222222</v>
+        <v>41916.3006944444</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>61</v>
+        <v>42.8</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19" t="n">
-        <v>14.633</v>
+        <v>7.217</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J19" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1518,31 +1518,31 @@
         <v>10</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>41916.6173611111</v>
+        <v>41916.3041666667</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E20" t="n">
-        <v>5.8</v>
+        <v>10.8</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
       </c>
       <c r="H20" t="n">
-        <v>14.817</v>
+        <v>7.3</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J20" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1550,31 +1550,31 @@
         <v>10</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>41916.6208333333</v>
+        <v>41916.3479166667</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>44.1</v>
+        <v>42.4</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21" t="n">
-        <v>14.9</v>
+        <v>8.35</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1582,31 +1582,31 @@
         <v>10</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>41916.6402777778</v>
+        <v>41916.3513888889</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="E22" t="n">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22" t="n">
-        <v>15.367</v>
+        <v>8.433</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J22" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1614,16 +1614,16 @@
         <v>10</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>41916.6854166667</v>
+        <v>41916.45</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E23" t="n">
-        <v>162.8</v>
+        <v>139.5</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -1632,13 +1632,13 @@
         <v>13</v>
       </c>
       <c r="H23" t="n">
-        <v>16.45</v>
+        <v>10.8</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
       </c>
       <c r="J23" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1646,16 +1646,16 @@
         <v>10</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>41916.7409722222</v>
+        <v>41916.5083333333</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
@@ -1664,13 +1664,13 @@
         <v>13</v>
       </c>
       <c r="H24" t="n">
-        <v>17.783</v>
+        <v>12.2</v>
       </c>
       <c r="I24" t="s">
         <v>17</v>
       </c>
       <c r="J24" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1678,16 +1678,16 @@
         <v>10</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>41916.8159722222</v>
+        <v>41916.5138888889</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E25" t="n">
-        <v>133.5</v>
+        <v>56.7</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -1696,13 +1696,13 @@
         <v>13</v>
       </c>
       <c r="H25" t="n">
-        <v>19.583</v>
+        <v>12.333</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
       </c>
       <c r="J25" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1710,31 +1710,31 @@
         <v>10</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>41916.8465277778</v>
+        <v>41916.5201388889</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E26" t="n">
-        <v>3.9</v>
+        <v>7.9</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H26" t="n">
-        <v>20.317</v>
+        <v>12.483</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J26" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1742,31 +1742,31 @@
         <v>10</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>41916.8923611111</v>
+        <v>41916.5756944444</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>80.7</v>
+        <v>37.8</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H27" t="n">
-        <v>21.417</v>
+        <v>13.817</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J27" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -1774,31 +1774,31 @@
         <v>10</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>41916.9020833333</v>
+        <v>41916.5826388889</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4</v>
+        <v>9.2</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H28" t="n">
-        <v>21.65</v>
+        <v>13.983</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J28" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -1806,31 +1806,31 @@
         <v>10</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>41916.9055555556</v>
+        <v>41916.6097222222</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E29" t="n">
-        <v>106.4</v>
+        <v>61</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H29" t="n">
-        <v>21.733</v>
+        <v>14.633</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J29" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -1838,31 +1838,31 @@
         <v>10</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>41916.9090277778</v>
+        <v>41916.6173611111</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>15.9</v>
+        <v>5.8</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H30" t="n">
-        <v>21.817</v>
+        <v>14.817</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J30" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -1870,31 +1870,31 @@
         <v>10</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>41916.9416666667</v>
+        <v>41916.6208333333</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8</v>
+        <v>44.1</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H31" t="n">
-        <v>22.6</v>
+        <v>14.9</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J31" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -1902,31 +1902,31 @@
         <v>10</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>41916.9826388889</v>
+        <v>41916.6402777778</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="E32" t="n">
-        <v>2.1</v>
+        <v>6.2</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H32" t="n">
-        <v>23.583</v>
+        <v>15.367</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J32" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -1934,31 +1934,31 @@
         <v>10</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>41917.0638888889</v>
+        <v>41916.6854166667</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E33" t="n">
-        <v>204.2</v>
+        <v>162.8</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H33" t="n">
-        <v>1.533</v>
+        <v>16.45</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -1966,31 +1966,31 @@
         <v>10</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>41917.0715277778</v>
+        <v>41916.7409722222</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="D34" t="n">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="E34" t="n">
-        <v>18.3</v>
+        <v>3.8</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H34" t="n">
-        <v>1.717</v>
+        <v>17.783</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
@@ -1998,31 +1998,31 @@
         <v>10</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>41917.0902777778</v>
+        <v>41916.8159722222</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E35" t="n">
-        <v>77.2</v>
+        <v>133.5</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H35" t="n">
-        <v>2.167</v>
+        <v>19.583</v>
       </c>
       <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" t="n">
         <v>19</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2030,16 +2030,16 @@
         <v>10</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>41917.1152777778</v>
+        <v>41916.8465277778</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="E36" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -2048,13 +2048,13 @@
         <v>18</v>
       </c>
       <c r="H36" t="n">
-        <v>2.767</v>
+        <v>20.317</v>
       </c>
       <c r="I36" t="s">
         <v>19</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -2062,16 +2062,16 @@
         <v>10</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>41917.2375</v>
+        <v>41916.8923611111</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
       </c>
       <c r="D37" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E37" t="n">
-        <v>58.9</v>
+        <v>80.7</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -2080,13 +2080,13 @@
         <v>18</v>
       </c>
       <c r="H37" t="n">
-        <v>5.7</v>
+        <v>21.417</v>
       </c>
       <c r="I37" t="s">
         <v>19</v>
       </c>
       <c r="J37" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
@@ -2094,16 +2094,16 @@
         <v>10</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>41917.2458333333</v>
+        <v>41916.9020833333</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="n">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -2112,13 +2112,13 @@
         <v>18</v>
       </c>
       <c r="H38" t="n">
-        <v>5.9</v>
+        <v>21.65</v>
       </c>
       <c r="I38" t="s">
         <v>19</v>
       </c>
       <c r="J38" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
@@ -2126,31 +2126,31 @@
         <v>10</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>41917.2861111111</v>
+        <v>41916.9055555556</v>
       </c>
       <c r="C39" t="s">
         <v>15</v>
       </c>
       <c r="D39" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n">
-        <v>152.2</v>
+        <v>106.4</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
         <v>18</v>
       </c>
       <c r="H39" t="n">
-        <v>6.867</v>
+        <v>21.733</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -2158,31 +2158,31 @@
         <v>10</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>41917.3152777778</v>
+        <v>41916.9090277778</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E40" t="n">
-        <v>2.5</v>
+        <v>15.9</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
         <v>18</v>
       </c>
       <c r="H40" t="n">
-        <v>7.567</v>
+        <v>21.817</v>
       </c>
       <c r="I40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J40" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -2190,31 +2190,31 @@
         <v>10</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>41917.3902777778</v>
+        <v>41916.9416666667</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E41" t="n">
-        <v>150.2</v>
+        <v>129.8</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
         <v>18</v>
       </c>
       <c r="H41" t="n">
-        <v>9.367</v>
+        <v>22.6</v>
       </c>
       <c r="I41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J41" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
@@ -2222,31 +2222,31 @@
         <v>10</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>41917.3965277778</v>
+        <v>41916.9826388889</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="E42" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
         <v>18</v>
       </c>
       <c r="H42" t="n">
-        <v>9.517</v>
+        <v>23.583</v>
       </c>
       <c r="I42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J42" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
@@ -2254,31 +2254,31 @@
         <v>10</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>41917.4006944444</v>
+        <v>41917.0638888889</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" t="n">
-        <v>52.8</v>
+        <v>204.2</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
         <v>18</v>
       </c>
       <c r="H43" t="n">
-        <v>9.617</v>
+        <v>1.533</v>
       </c>
       <c r="I43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J43" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2286,31 +2286,31 @@
         <v>10</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>41917.4090277778</v>
+        <v>41917.0715277778</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E44" t="n">
-        <v>2.2</v>
+        <v>18.3</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
         <v>18</v>
       </c>
       <c r="H44" t="n">
-        <v>9.817</v>
+        <v>1.717</v>
       </c>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J44" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2318,31 +2318,31 @@
         <v>10</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>41917.4125</v>
+        <v>41917.0902777778</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E45" t="n">
-        <v>109.2</v>
+        <v>77.2</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
         <v>18</v>
       </c>
       <c r="H45" t="n">
-        <v>9.9</v>
+        <v>2.167</v>
       </c>
       <c r="I45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J45" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2350,31 +2350,31 @@
         <v>10</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>41917.4159722222</v>
+        <v>41917.1152777778</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
       </c>
       <c r="D46" t="n">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="E46" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
         <v>18</v>
       </c>
       <c r="H46" t="n">
-        <v>9.983</v>
+        <v>2.767</v>
       </c>
       <c r="I46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J46" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2382,31 +2382,31 @@
         <v>10</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>41917.5020833333</v>
+        <v>41917.2375</v>
       </c>
       <c r="C47" t="s">
         <v>15</v>
       </c>
       <c r="D47" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E47" t="n">
-        <v>165.7</v>
+        <v>58.9</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
         <v>18</v>
       </c>
       <c r="H47" t="n">
-        <v>12.05</v>
+        <v>5.7</v>
       </c>
       <c r="I47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J47" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -2414,31 +2414,31 @@
         <v>10</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>41917.5326388889</v>
+        <v>41917.2458333333</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="E48" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
         <v>18</v>
       </c>
       <c r="H48" t="n">
-        <v>12.783</v>
+        <v>5.9</v>
       </c>
       <c r="I48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J48" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -2446,31 +2446,31 @@
         <v>10</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>41917.5361111111</v>
+        <v>41917.2861111111</v>
       </c>
       <c r="C49" t="s">
         <v>15</v>
       </c>
       <c r="D49" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>52.7</v>
+        <v>102</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
         <v>18</v>
       </c>
       <c r="H49" t="n">
-        <v>12.867</v>
+        <v>6.867</v>
       </c>
       <c r="I49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J49" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -2478,7 +2478,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>41917.5479166667</v>
+        <v>41917.2909722222</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
@@ -2487,22 +2487,22 @@
         <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G50" t="s">
         <v>18</v>
       </c>
       <c r="H50" t="n">
-        <v>13.15</v>
+        <v>6.983</v>
       </c>
       <c r="I50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J50" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -2510,31 +2510,31 @@
         <v>10</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>41917.5527777778</v>
+        <v>41917.2958333333</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>73.9</v>
+        <v>172.7</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
         <v>18</v>
       </c>
       <c r="H51" t="n">
-        <v>13.267</v>
+        <v>7.1</v>
       </c>
       <c r="I51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J51" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -2542,31 +2542,31 @@
         <v>10</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>41917.5652777778</v>
+        <v>41917.3027777778</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E52" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
         <v>18</v>
       </c>
       <c r="H52" t="n">
-        <v>13.567</v>
+        <v>7.267</v>
       </c>
       <c r="I52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J52" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -2574,31 +2574,31 @@
         <v>10</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>41917.5701388889</v>
+        <v>41917.3118055556</v>
       </c>
       <c r="C53" t="s">
         <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E53" t="n">
-        <v>83.2</v>
+        <v>61.8</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
         <v>18</v>
       </c>
       <c r="H53" t="n">
-        <v>13.683</v>
+        <v>7.483</v>
       </c>
       <c r="I53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J53" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -2606,31 +2606,31 @@
         <v>10</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>41917.5916666667</v>
+        <v>41917.3152777778</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="E54" t="n">
-        <v>6.6</v>
+        <v>2.5</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G54" t="s">
         <v>18</v>
       </c>
       <c r="H54" t="n">
-        <v>14.2</v>
+        <v>7.567</v>
       </c>
       <c r="I54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J54" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -2638,31 +2638,31 @@
         <v>10</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>41917.6145833333</v>
+        <v>41917.3902777778</v>
       </c>
       <c r="C55" t="s">
         <v>15</v>
       </c>
       <c r="D55" t="n">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E55" t="n">
-        <v>103.9</v>
+        <v>150.2</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G55" t="s">
         <v>18</v>
       </c>
       <c r="H55" t="n">
-        <v>14.75</v>
+        <v>9.367</v>
       </c>
       <c r="I55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J55" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
@@ -2670,31 +2670,31 @@
         <v>10</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>41917.6486111111</v>
+        <v>41917.3965277778</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>142</v>
+        <v>6</v>
       </c>
       <c r="E56" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
         <v>18</v>
       </c>
       <c r="H56" t="n">
-        <v>15.567</v>
+        <v>9.517</v>
       </c>
       <c r="I56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J56" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -2702,31 +2702,31 @@
         <v>10</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>41917.7472222222</v>
+        <v>41917.4006944444</v>
       </c>
       <c r="C57" t="s">
         <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E57" t="n">
-        <v>120.5</v>
+        <v>52.8</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
         <v>18</v>
       </c>
       <c r="H57" t="n">
-        <v>17.933</v>
+        <v>9.617</v>
       </c>
       <c r="I57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J57" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -2734,31 +2734,31 @@
         <v>10</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>41917.7527777778</v>
+        <v>41917.4090277778</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E58" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
         <v>18</v>
       </c>
       <c r="H58" t="n">
-        <v>18.067</v>
+        <v>9.817</v>
       </c>
       <c r="I58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J58" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -2766,31 +2766,31 @@
         <v>10</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>41917.7576388889</v>
+        <v>41917.4125</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E59" t="n">
-        <v>43.2</v>
+        <v>109.2</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G59" t="s">
         <v>18</v>
       </c>
       <c r="H59" t="n">
-        <v>18.183</v>
+        <v>9.9</v>
       </c>
       <c r="I59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J59" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
@@ -2798,31 +2798,31 @@
         <v>10</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>41917.7819444444</v>
+        <v>41917.4159722222</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G60" t="s">
         <v>18</v>
       </c>
       <c r="H60" t="n">
-        <v>18.767</v>
+        <v>9.983</v>
       </c>
       <c r="I60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J60" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
@@ -2830,16 +2830,16 @@
         <v>10</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>41917.7972222222</v>
+        <v>41917.5020833333</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E61" t="n">
-        <v>81.8</v>
+        <v>165.7</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
@@ -2848,13 +2848,13 @@
         <v>18</v>
       </c>
       <c r="H61" t="n">
-        <v>19.133</v>
+        <v>12.05</v>
       </c>
       <c r="I61" t="s">
         <v>20</v>
       </c>
       <c r="J61" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -2862,16 +2862,16 @@
         <v>10</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>41917.8229166667</v>
+        <v>41917.5326388889</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="E62" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
@@ -2880,13 +2880,13 @@
         <v>18</v>
       </c>
       <c r="H62" t="n">
-        <v>19.75</v>
+        <v>12.783</v>
       </c>
       <c r="I62" t="s">
         <v>20</v>
       </c>
       <c r="J62" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
@@ -2894,16 +2894,16 @@
         <v>10</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>41917.8555555556</v>
+        <v>41917.5361111111</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
       </c>
       <c r="D63" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E63" t="n">
-        <v>128.1</v>
+        <v>52.7</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
@@ -2912,13 +2912,13 @@
         <v>18</v>
       </c>
       <c r="H63" t="n">
-        <v>20.533</v>
+        <v>12.867</v>
       </c>
       <c r="I63" t="s">
         <v>20</v>
       </c>
       <c r="J63" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -2926,16 +2926,16 @@
         <v>10</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>41917.8923611111</v>
+        <v>41917.5479166667</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
@@ -2944,13 +2944,13 @@
         <v>18</v>
       </c>
       <c r="H64" t="n">
-        <v>21.417</v>
+        <v>13.15</v>
       </c>
       <c r="I64" t="s">
         <v>20</v>
       </c>
       <c r="J64" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -2958,16 +2958,16 @@
         <v>10</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>41917.8958333333</v>
+        <v>41917.5527777778</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="E65" t="n">
-        <v>164.8</v>
+        <v>73.9</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
@@ -2976,13 +2976,13 @@
         <v>18</v>
       </c>
       <c r="H65" t="n">
-        <v>21.5</v>
+        <v>13.267</v>
       </c>
       <c r="I65" t="s">
         <v>20</v>
       </c>
       <c r="J65" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -2990,31 +2990,31 @@
         <v>10</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>41917.9791666667</v>
+        <v>41917.5652777778</v>
       </c>
       <c r="C66" t="s">
         <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="E66" t="n">
-        <v>8.5</v>
+        <v>4.4</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G66" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H66" t="n">
-        <v>23.5</v>
+        <v>13.567</v>
       </c>
       <c r="I66" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J66" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -3022,31 +3022,31 @@
         <v>10</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>41918.0666666667</v>
+        <v>41917.5701388889</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
       </c>
       <c r="D67" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E67" t="n">
-        <v>44.9</v>
+        <v>83.2</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H67" t="n">
-        <v>1.6</v>
+        <v>13.683</v>
       </c>
       <c r="I67" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -3054,31 +3054,31 @@
         <v>10</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>41918.0875</v>
+        <v>41917.5916666667</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E68" t="n">
-        <v>18.2</v>
+        <v>6.6</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H68" t="n">
-        <v>2.1</v>
+        <v>14.2</v>
       </c>
       <c r="I68" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -3086,31 +3086,31 @@
         <v>10</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>41918.1138888889</v>
+        <v>41917.6145833333</v>
       </c>
       <c r="C69" t="s">
         <v>15</v>
       </c>
       <c r="D69" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E69" t="n">
-        <v>142.8</v>
+        <v>103.9</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G69" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H69" t="n">
-        <v>2.733</v>
+        <v>14.75</v>
       </c>
       <c r="I69" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -3118,31 +3118,31 @@
         <v>10</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>41918.1569444444</v>
+        <v>41917.6486111111</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
       </c>
       <c r="D70" t="n">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E70" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G70" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H70" t="n">
-        <v>3.767</v>
+        <v>15.567</v>
       </c>
       <c r="I70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
@@ -3150,31 +3150,31 @@
         <v>10</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>41918.26875</v>
+        <v>41917.7472222222</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E71" t="n">
-        <v>77</v>
+        <v>120.5</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G71" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H71" t="n">
-        <v>6.45</v>
+        <v>17.933</v>
       </c>
       <c r="I71" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J71" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72">
@@ -3182,31 +3182,31 @@
         <v>10</v>
       </c>
       <c r="B72" s="1" t="n">
-        <v>41918.2722222222</v>
+        <v>41917.7527777778</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="E72" t="n">
-        <v>7.7</v>
+        <v>4.6</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G72" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H72" t="n">
-        <v>6.533</v>
+        <v>18.067</v>
       </c>
       <c r="I72" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J72" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
@@ -3214,31 +3214,31 @@
         <v>10</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>41918.3736111111</v>
+        <v>41917.7576388889</v>
       </c>
       <c r="C73" t="s">
         <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="E73" t="n">
-        <v>107.2</v>
+        <v>43.2</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H73" t="n">
-        <v>8.967</v>
+        <v>18.183</v>
       </c>
       <c r="I73" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J73" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
@@ -3246,31 +3246,31 @@
         <v>10</v>
       </c>
       <c r="B74" s="1" t="n">
-        <v>41918.4340277778</v>
+        <v>41917.7819444444</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
       </c>
       <c r="D74" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E74" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
       </c>
       <c r="G74" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H74" t="n">
-        <v>10.417</v>
+        <v>18.767</v>
       </c>
       <c r="I74" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J74" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -3278,31 +3278,31 @@
         <v>10</v>
       </c>
       <c r="B75" s="1" t="n">
-        <v>41918.4375</v>
+        <v>41917.7972222222</v>
       </c>
       <c r="C75" t="s">
         <v>15</v>
       </c>
       <c r="D75" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E75" t="n">
-        <v>57</v>
+        <v>81.8</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H75" t="n">
-        <v>10.5</v>
+        <v>19.133</v>
       </c>
       <c r="I75" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J75" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
@@ -3310,31 +3310,31 @@
         <v>10</v>
       </c>
       <c r="B76" s="1" t="n">
-        <v>41918.4409722222</v>
+        <v>41917.8229166667</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
       </c>
       <c r="D76" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E76" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
       </c>
       <c r="G76" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H76" t="n">
-        <v>10.583</v>
+        <v>19.75</v>
       </c>
       <c r="I76" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J76" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
@@ -3342,31 +3342,31 @@
         <v>10</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>41918.4805555556</v>
+        <v>41917.8555555556</v>
       </c>
       <c r="C77" t="s">
         <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="E77" t="n">
-        <v>51.2</v>
+        <v>128.1</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H77" t="n">
-        <v>11.533</v>
+        <v>20.533</v>
       </c>
       <c r="I77" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J77" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
@@ -3374,31 +3374,31 @@
         <v>10</v>
       </c>
       <c r="B78" s="1" t="n">
-        <v>41918.4840277778</v>
+        <v>41917.8923611111</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="E78" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" t="n">
+        <v>21.417</v>
+      </c>
+      <c r="I78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" t="n">
         <v>21</v>
-      </c>
-      <c r="H78" t="n">
-        <v>11.617</v>
-      </c>
-      <c r="I78" t="s">
-        <v>23</v>
-      </c>
-      <c r="J78" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="79">
@@ -3406,31 +3406,31 @@
         <v>10</v>
       </c>
       <c r="B79" s="1" t="n">
-        <v>41918.5652777778</v>
+        <v>41917.8958333333</v>
       </c>
       <c r="C79" t="s">
         <v>15</v>
       </c>
       <c r="D79" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="E79" t="n">
-        <v>76.2</v>
+        <v>164.8</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="I79" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" t="n">
         <v>21</v>
-      </c>
-      <c r="H79" t="n">
-        <v>13.567</v>
-      </c>
-      <c r="I79" t="s">
-        <v>23</v>
-      </c>
-      <c r="J79" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="80">
@@ -3438,31 +3438,31 @@
         <v>10</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>41918.5708333333</v>
+        <v>41917.9791666667</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
       </c>
       <c r="D80" t="n">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G80" t="s">
         <v>21</v>
       </c>
       <c r="H80" t="n">
-        <v>13.7</v>
+        <v>23.5</v>
       </c>
       <c r="I80" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" t="n">
         <v>23</v>
-      </c>
-      <c r="J80" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -3470,31 +3470,31 @@
         <v>10</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>41918.575</v>
+        <v>41918.0666666667</v>
       </c>
       <c r="C81" t="s">
         <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E81" t="n">
-        <v>133.1</v>
+        <v>44.9</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G81" t="s">
         <v>21</v>
       </c>
       <c r="H81" t="n">
-        <v>13.8</v>
+        <v>1.6</v>
       </c>
       <c r="I81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J81" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3502,31 +3502,31 @@
         <v>10</v>
       </c>
       <c r="B82" s="1" t="n">
-        <v>41918.5875</v>
+        <v>41918.0875</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
       </c>
       <c r="D82" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7</v>
+        <v>18.2</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G82" t="s">
         <v>21</v>
       </c>
       <c r="H82" t="n">
-        <v>14.1</v>
+        <v>2.1</v>
       </c>
       <c r="I82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J82" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -3534,31 +3534,31 @@
         <v>10</v>
       </c>
       <c r="B83" s="1" t="n">
-        <v>41918.5923611111</v>
+        <v>41918.1138888889</v>
       </c>
       <c r="C83" t="s">
         <v>15</v>
       </c>
       <c r="D83" t="n">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="E83" t="n">
-        <v>94.1</v>
+        <v>142.8</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G83" t="s">
         <v>21</v>
       </c>
       <c r="H83" t="n">
-        <v>14.217</v>
+        <v>2.733</v>
       </c>
       <c r="I83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J83" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -3566,31 +3566,31 @@
         <v>10</v>
       </c>
       <c r="B84" s="1" t="n">
-        <v>41918.6631944444</v>
+        <v>41918.1569444444</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
       </c>
       <c r="D84" t="n">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G84" t="s">
         <v>21</v>
       </c>
       <c r="H84" t="n">
-        <v>15.917</v>
+        <v>3.767</v>
       </c>
       <c r="I84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J84" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -3598,31 +3598,31 @@
         <v>10</v>
       </c>
       <c r="B85" s="1" t="n">
-        <v>41918.6715277778</v>
+        <v>41918.26875</v>
       </c>
       <c r="C85" t="s">
         <v>15</v>
       </c>
       <c r="D85" t="n">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="E85" t="n">
-        <v>226.4</v>
+        <v>77</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G85" t="s">
         <v>21</v>
       </c>
       <c r="H85" t="n">
-        <v>16.117</v>
+        <v>6.45</v>
       </c>
       <c r="I85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J85" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
@@ -3630,31 +3630,31 @@
         <v>10</v>
       </c>
       <c r="B86" s="1" t="n">
-        <v>41918.7423611111</v>
+        <v>41918.2722222222</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="E86" t="n">
-        <v>6.3</v>
+        <v>7.7</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G86" t="s">
         <v>21</v>
       </c>
       <c r="H86" t="n">
-        <v>17.817</v>
+        <v>6.533</v>
       </c>
       <c r="I86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J86" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -3662,16 +3662,16 @@
         <v>10</v>
       </c>
       <c r="B87" s="1" t="n">
-        <v>41918.7486111111</v>
+        <v>41918.3736111111</v>
       </c>
       <c r="C87" t="s">
         <v>15</v>
       </c>
       <c r="D87" t="n">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E87" t="n">
-        <v>227.3</v>
+        <v>107.2</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
@@ -3680,13 +3680,13 @@
         <v>21</v>
       </c>
       <c r="H87" t="n">
-        <v>17.967</v>
+        <v>8.967</v>
       </c>
       <c r="I87" t="s">
         <v>23</v>
       </c>
       <c r="J87" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
@@ -3694,16 +3694,16 @@
         <v>10</v>
       </c>
       <c r="B88" s="1" t="n">
-        <v>41918.7805555556</v>
+        <v>41918.4340277778</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
       </c>
       <c r="D88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
@@ -3712,13 +3712,13 @@
         <v>21</v>
       </c>
       <c r="H88" t="n">
-        <v>18.733</v>
+        <v>10.417</v>
       </c>
       <c r="I88" t="s">
         <v>23</v>
       </c>
       <c r="J88" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
@@ -3726,16 +3726,16 @@
         <v>10</v>
       </c>
       <c r="B89" s="1" t="n">
-        <v>41918.7847222222</v>
+        <v>41918.4375</v>
       </c>
       <c r="C89" t="s">
         <v>15</v>
       </c>
       <c r="D89" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E89" t="n">
-        <v>102.6</v>
+        <v>57</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
@@ -3744,13 +3744,13 @@
         <v>21</v>
       </c>
       <c r="H89" t="n">
-        <v>18.833</v>
+        <v>10.5</v>
       </c>
       <c r="I89" t="s">
         <v>23</v>
       </c>
       <c r="J89" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -3758,16 +3758,16 @@
         <v>10</v>
       </c>
       <c r="B90" s="1" t="n">
-        <v>41918.8125</v>
+        <v>41918.4409722222</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E90" t="n">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
@@ -3776,13 +3776,13 @@
         <v>21</v>
       </c>
       <c r="H90" t="n">
-        <v>19.5</v>
+        <v>10.583</v>
       </c>
       <c r="I90" t="s">
         <v>23</v>
       </c>
       <c r="J90" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -3790,16 +3790,16 @@
         <v>10</v>
       </c>
       <c r="B91" s="1" t="n">
-        <v>41918.8555555556</v>
+        <v>41918.4805555556</v>
       </c>
       <c r="C91" t="s">
         <v>15</v>
       </c>
       <c r="D91" t="n">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="E91" t="n">
-        <v>310.4</v>
+        <v>51.2</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
@@ -3808,12 +3808,460 @@
         <v>21</v>
       </c>
       <c r="H91" t="n">
-        <v>20.533</v>
+        <v>11.533</v>
       </c>
       <c r="I91" t="s">
         <v>23</v>
       </c>
       <c r="J91" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>41918.4840277778</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="n">
+        <v>117</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F92" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>21</v>
+      </c>
+      <c r="H92" t="n">
+        <v>11.617</v>
+      </c>
+      <c r="I92" t="s">
+        <v>23</v>
+      </c>
+      <c r="J92" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>41918.5652777778</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8</v>
+      </c>
+      <c r="E93" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="F93" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" t="n">
+        <v>13.567</v>
+      </c>
+      <c r="I93" t="s">
+        <v>23</v>
+      </c>
+      <c r="J93" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>41918.5708333333</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="n">
+        <v>6</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="I94" t="s">
+        <v>23</v>
+      </c>
+      <c r="J94" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>41918.575</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" t="n">
+        <v>18</v>
+      </c>
+      <c r="E95" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>21</v>
+      </c>
+      <c r="H95" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="I95" t="s">
+        <v>23</v>
+      </c>
+      <c r="J95" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>41918.5875</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" t="n">
+        <v>7</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>23</v>
+      </c>
+      <c r="J96" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>41918.5923611111</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" t="n">
+        <v>102</v>
+      </c>
+      <c r="E97" t="n">
+        <v>94.1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" t="n">
+        <v>14.217</v>
+      </c>
+      <c r="I97" t="s">
+        <v>23</v>
+      </c>
+      <c r="J97" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>41918.6631944444</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" t="n">
+        <v>12</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4</v>
+      </c>
+      <c r="F98" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>21</v>
+      </c>
+      <c r="H98" t="n">
+        <v>15.917</v>
+      </c>
+      <c r="I98" t="s">
+        <v>23</v>
+      </c>
+      <c r="J98" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>41918.6715277778</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" t="n">
+        <v>102</v>
+      </c>
+      <c r="E99" t="n">
+        <v>226.4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>21</v>
+      </c>
+      <c r="H99" t="n">
+        <v>16.117</v>
+      </c>
+      <c r="I99" t="s">
+        <v>23</v>
+      </c>
+      <c r="J99" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>41918.7423611111</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" t="n">
+        <v>9</v>
+      </c>
+      <c r="E100" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>21</v>
+      </c>
+      <c r="H100" t="n">
+        <v>17.817</v>
+      </c>
+      <c r="I100" t="s">
+        <v>23</v>
+      </c>
+      <c r="J100" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>41918.7486111111</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" t="n">
+        <v>46</v>
+      </c>
+      <c r="E101" t="n">
+        <v>227.3</v>
+      </c>
+      <c r="F101" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" t="s">
+        <v>21</v>
+      </c>
+      <c r="H101" t="n">
+        <v>17.967</v>
+      </c>
+      <c r="I101" t="s">
+        <v>23</v>
+      </c>
+      <c r="J101" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>41918.7805555556</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" t="n">
+        <v>6</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F102" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>21</v>
+      </c>
+      <c r="H102" t="n">
+        <v>18.733</v>
+      </c>
+      <c r="I102" t="s">
+        <v>23</v>
+      </c>
+      <c r="J102" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>41918.7847222222</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" t="n">
+        <v>40</v>
+      </c>
+      <c r="E103" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="F103" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>21</v>
+      </c>
+      <c r="H103" t="n">
+        <v>18.833</v>
+      </c>
+      <c r="I103" t="s">
+        <v>23</v>
+      </c>
+      <c r="J103" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>41918.8125</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="n">
+        <v>62</v>
+      </c>
+      <c r="E104" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F104" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" t="s">
+        <v>21</v>
+      </c>
+      <c r="H104" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I104" t="s">
+        <v>23</v>
+      </c>
+      <c r="J104" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>41918.8555555556</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" t="n">
+        <v>74</v>
+      </c>
+      <c r="E105" t="n">
+        <v>310.4</v>
+      </c>
+      <c r="F105" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" t="s">
+        <v>21</v>
+      </c>
+      <c r="H105" t="n">
+        <v>20.533</v>
+      </c>
+      <c r="I105" t="s">
+        <v>23</v>
+      </c>
+      <c r="J105" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3878,7 +4326,7 @@
     <col min="7" max="7" width="6.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="6.71" hidden="0" customWidth="1"/>
     <col min="9" max="9" width="6.71" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="8.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="7.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="5.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="38.71" hidden="0" customWidth="1"/>
   </cols>
@@ -3935,13 +4383,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>1.783</v>
+        <v>20.667</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>6.283</v>
+        <v>3.733</v>
       </c>
       <c r="H2" t="n">
         <v>10.8</v>
@@ -3953,7 +4401,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>41916</v>
+        <v>41915</v>
       </c>
       <c r="L2" t="s">
         <v>38</v>
@@ -4017,13 +4465,13 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>1.583</v>
+        <v>4.167</v>
       </c>
       <c r="H4" t="n">
-        <v>6.867</v>
+        <v>12.033</v>
       </c>
       <c r="I4" t="n">
-        <v>30.867</v>
+        <v>12.033</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -4049,13 +4497,13 @@
         <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>6.867</v>
+        <v>12.05</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>15.183</v>
+        <v>17.767</v>
       </c>
       <c r="H5" t="n">
         <v>23.5</v>
@@ -4168,7 +4616,7 @@
     <col min="1" max="1" width="29.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="7.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="8.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="7.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="3.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="3.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="4.71" hidden="0" customWidth="1"/>
@@ -4303,79 +4751,79 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>21</v>
+      </c>
+      <c r="H2" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="J2" t="n">
         <v>6</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
         <v>5</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
         <v>11</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>54.5</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>45.5</v>
       </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>10</v>
+      </c>
+      <c r="R2" t="n">
         <v>50</v>
       </c>
-      <c r="N2" t="n">
+      <c r="S2" t="n">
         <v>50</v>
       </c>
-      <c r="O2" t="n">
-        <v>4</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>7</v>
-      </c>
-      <c r="R2" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>42.9</v>
-      </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="W2" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB2" t="n">
         <v>50</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AC2" t="n">
         <v>50</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>42.9</v>
       </c>
       <c r="AD2" t="s">
         <v>38</v>
@@ -4487,79 +4935,79 @@
         <v>19</v>
       </c>
       <c r="E4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>52</v>
+      </c>
+      <c r="I4" t="n">
+        <v>48</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11</v>
+      </c>
+      <c r="M4" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="O4" t="n">
         <v>7</v>
       </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13</v>
-      </c>
-      <c r="H4" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="I4" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>14</v>
+      </c>
+      <c r="R4" t="n">
+        <v>50</v>
+      </c>
+      <c r="S4" t="n">
+        <v>50</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>10</v>
+      </c>
+      <c r="W4" t="n">
+        <v>50</v>
+      </c>
+      <c r="X4" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y4" t="n">
         <v>8</v>
       </c>
-      <c r="M4" t="n">
-        <v>50</v>
-      </c>
-      <c r="N4" t="n">
-        <v>50</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>60</v>
-      </c>
-      <c r="S4" t="n">
-        <v>40</v>
-      </c>
-      <c r="T4" t="n">
-        <v>4</v>
-      </c>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
-      <c r="V4" t="n">
+      <c r="Z4" t="n">
         <v>7</v>
       </c>
-      <c r="W4" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="X4" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>3</v>
-      </c>
       <c r="AA4" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>50</v>
+        <v>46.7</v>
       </c>
       <c r="AD4" t="s">
         <v>42</v>
@@ -4579,79 +5027,79 @@
         <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
-        <v>48.1</v>
+        <v>47.4</v>
       </c>
       <c r="I5" t="n">
-        <v>51.9</v>
+        <v>52.6</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>47.1</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>52.9</v>
+        <v>50</v>
       </c>
       <c r="O5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R5" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>10</v>
+      </c>
+      <c r="W5" t="n">
         <v>50</v>
       </c>
-      <c r="S5" t="n">
+      <c r="X5" t="n">
         <v>50</v>
       </c>
-      <c r="T5" t="n">
-        <v>8</v>
-      </c>
-      <c r="U5" t="n">
-        <v>9</v>
-      </c>
-      <c r="V5" t="n">
-        <v>17</v>
-      </c>
-      <c r="W5" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>52.9</v>
-      </c>
       <c r="Y5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z5" t="n">
         <v>5</v>
       </c>
       <c r="AA5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB5" t="n">
-        <v>50</v>
+        <v>44.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>50</v>
+        <v>55.6</v>
       </c>
       <c r="AD5" t="s">
         <v>44</v>
@@ -4860,7 +5308,7 @@
     <col min="1" max="1" width="29.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="7.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="8.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="7.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="3.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="3.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="4.71" hidden="0" customWidth="1"/>
@@ -5039,112 +5487,112 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>473</v>
+        <v>641</v>
       </c>
       <c r="I2" t="n">
-        <v>68</v>
+        <v>207</v>
       </c>
       <c r="J2" t="n">
-        <v>541</v>
+        <v>848</v>
       </c>
       <c r="K2" t="n">
-        <v>87.4</v>
+        <v>75.6</v>
       </c>
       <c r="L2" t="n">
-        <v>12.6</v>
+        <v>24.4</v>
       </c>
       <c r="M2" t="n">
-        <v>78.8</v>
+        <v>58.3</v>
       </c>
       <c r="N2" t="n">
-        <v>13.6</v>
+        <v>20.7</v>
       </c>
       <c r="O2" t="n">
-        <v>49.2</v>
+        <v>40.4</v>
       </c>
       <c r="P2" t="n">
         <v>152</v>
       </c>
       <c r="Q2" t="n">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="R2" t="n">
-        <v>145</v>
+        <v>246</v>
       </c>
       <c r="S2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T2" t="n">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="V2" t="n">
-        <v>180</v>
+        <v>283</v>
       </c>
       <c r="W2" t="n">
-        <v>84.4</v>
+        <v>53.7</v>
       </c>
       <c r="X2" t="n">
-        <v>15.6</v>
+        <v>46.3</v>
       </c>
       <c r="Y2" t="n">
-        <v>180</v>
+        <v>282</v>
       </c>
       <c r="Z2" t="n">
-        <v>80.6</v>
+        <v>87.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.4</v>
+        <v>12.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>181</v>
+        <v>283</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.2</v>
+        <v>85.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.8</v>
+        <v>14.1</v>
       </c>
       <c r="AE2" t="n">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="AF2" t="n">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="AG2" t="n">
-        <v>241</v>
+        <v>356</v>
       </c>
       <c r="AH2" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="AI2" t="n">
-        <v>270</v>
+        <v>424</v>
       </c>
       <c r="AJ2" t="n">
-        <v>85.9</v>
+        <v>67.2</v>
       </c>
       <c r="AK2" t="n">
-        <v>14.1</v>
+        <v>32.8</v>
       </c>
       <c r="AL2" t="n">
-        <v>271</v>
+        <v>424</v>
       </c>
       <c r="AM2" t="n">
-        <v>88.9</v>
+        <v>84</v>
       </c>
       <c r="AN2" t="n">
-        <v>11.1</v>
+        <v>16</v>
       </c>
       <c r="AO2" t="s">
         <v>38</v>
@@ -5289,112 +5737,112 @@
         <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>495</v>
+        <v>757</v>
       </c>
       <c r="I4" t="n">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="J4" t="n">
-        <v>632</v>
+        <v>942</v>
       </c>
       <c r="K4" t="n">
-        <v>78.3</v>
+        <v>80.4</v>
       </c>
       <c r="L4" t="n">
-        <v>21.7</v>
+        <v>19.6</v>
       </c>
       <c r="M4" t="n">
-        <v>70.7</v>
+        <v>58.2</v>
       </c>
       <c r="N4" t="n">
-        <v>22.8</v>
+        <v>15.4</v>
       </c>
       <c r="O4" t="n">
-        <v>48.6</v>
+        <v>37.7</v>
       </c>
       <c r="P4" t="n">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="Q4" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R4" t="n">
-        <v>164</v>
+        <v>256</v>
       </c>
       <c r="S4" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="T4" t="n">
-        <v>199</v>
+        <v>267</v>
       </c>
       <c r="U4" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="V4" t="n">
-        <v>210</v>
+        <v>313</v>
       </c>
       <c r="W4" t="n">
-        <v>62.9</v>
+        <v>74.8</v>
       </c>
       <c r="X4" t="n">
-        <v>37.1</v>
+        <v>25.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>211</v>
+        <v>314</v>
       </c>
       <c r="Z4" t="n">
-        <v>77.7</v>
+        <v>81.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>22.3</v>
+        <v>18.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>211</v>
+        <v>315</v>
       </c>
       <c r="AC4" t="n">
-        <v>94.3</v>
+        <v>84.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.7</v>
+        <v>15.2</v>
       </c>
       <c r="AE4" t="n">
-        <v>234</v>
+        <v>345</v>
       </c>
       <c r="AF4" t="n">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="AG4" t="n">
-        <v>261</v>
+        <v>412</v>
       </c>
       <c r="AH4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI4" t="n">
-        <v>316</v>
+        <v>470</v>
       </c>
       <c r="AJ4" t="n">
-        <v>74.1</v>
+        <v>73.4</v>
       </c>
       <c r="AK4" t="n">
-        <v>25.9</v>
+        <v>26.6</v>
       </c>
       <c r="AL4" t="n">
-        <v>316</v>
+        <v>472</v>
       </c>
       <c r="AM4" t="n">
-        <v>82.6</v>
+        <v>87.3</v>
       </c>
       <c r="AN4" t="n">
-        <v>17.4</v>
+        <v>12.7</v>
       </c>
       <c r="AO4" t="s">
         <v>42</v>
@@ -5414,112 +5862,112 @@
         <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
-        <v>517</v>
+        <v>275</v>
       </c>
       <c r="I5" t="n">
-        <v>480</v>
+        <v>412</v>
       </c>
       <c r="J5" t="n">
-        <v>997</v>
+        <v>687</v>
       </c>
       <c r="K5" t="n">
-        <v>51.9</v>
+        <v>40</v>
       </c>
       <c r="L5" t="n">
-        <v>48.1</v>
+        <v>60</v>
       </c>
       <c r="M5" t="n">
-        <v>39.8</v>
+        <v>30.6</v>
       </c>
       <c r="N5" t="n">
-        <v>34.3</v>
+        <v>41.2</v>
       </c>
       <c r="O5" t="n">
-        <v>36.9</v>
+        <v>36.2</v>
       </c>
       <c r="P5" t="n">
-        <v>242</v>
+        <v>70</v>
       </c>
       <c r="Q5" t="n">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="R5" t="n">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="S5" t="n">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="T5" t="n">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="U5" t="n">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="V5" t="n">
-        <v>332</v>
+        <v>229</v>
       </c>
       <c r="W5" t="n">
-        <v>72.9</v>
+        <v>30.6</v>
       </c>
       <c r="X5" t="n">
-        <v>27.1</v>
+        <v>69.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>332</v>
+        <v>229</v>
       </c>
       <c r="Z5" t="n">
-        <v>58.4</v>
+        <v>66.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>41.6</v>
+        <v>33.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>333</v>
+        <v>229</v>
       </c>
       <c r="AC5" t="n">
-        <v>24.3</v>
+        <v>22.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>75.7</v>
+        <v>77.3</v>
       </c>
       <c r="AE5" t="n">
-        <v>294</v>
+        <v>184</v>
       </c>
       <c r="AF5" t="n">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="AG5" t="n">
-        <v>223</v>
+        <v>91</v>
       </c>
       <c r="AH5" t="n">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="AI5" t="n">
-        <v>498</v>
+        <v>343</v>
       </c>
       <c r="AJ5" t="n">
-        <v>59</v>
+        <v>53.6</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>46.4</v>
       </c>
       <c r="AL5" t="n">
-        <v>499</v>
+        <v>344</v>
       </c>
       <c r="AM5" t="n">
-        <v>44.7</v>
+        <v>26.5</v>
       </c>
       <c r="AN5" t="n">
-        <v>55.3</v>
+        <v>73.5</v>
       </c>
       <c r="AO5" t="s">
         <v>44</v>
@@ -5794,7 +6242,7 @@
     <col min="1" max="1" width="29.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="7.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="8.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="7.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="7.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="7.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="7.71" hidden="0" customWidth="1"/>
@@ -5894,13 +6342,13 @@
         <v>9.617</v>
       </c>
       <c r="H2" t="n">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>0.55</v>
       </c>
       <c r="K2" t="n">
         <v>125</v>
@@ -5909,10 +6357,10 @@
         <v>2.817</v>
       </c>
       <c r="M2" t="n">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>0.55</v>
       </c>
       <c r="O2" t="n">
         <v>142</v>
@@ -5921,10 +6369,10 @@
         <v>9.617</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="R2" t="n">
-        <v>6.967</v>
+        <v>4.1</v>
       </c>
       <c r="S2" t="s">
         <v>38</v>
@@ -6039,10 +6487,10 @@
         <v>4.233</v>
       </c>
       <c r="Q4" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="R4" t="n">
-        <v>2.467</v>
+        <v>5.8</v>
       </c>
       <c r="S4" t="s">
         <v>42</v>
@@ -6065,7 +6513,7 @@
         <v>142</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>16.75</v>
@@ -6080,10 +6528,10 @@
         <v>22.5</v>
       </c>
       <c r="K5" t="n">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="L5" t="n">
-        <v>11</v>
+        <v>16.75</v>
       </c>
       <c r="M5" t="n">
         <v>49</v>
@@ -6092,10 +6540,10 @@
         <v>15.15</v>
       </c>
       <c r="O5" t="n">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="P5" t="n">
-        <v>16.75</v>
+        <v>20.133</v>
       </c>
       <c r="Q5" t="n">
         <v>120</v>
@@ -6188,10 +6636,10 @@
         <v>102</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>16.967</v>
+        <v>15.067</v>
       </c>
       <c r="K7" t="n">
         <v>117</v>
@@ -6240,7 +6688,7 @@
     <col min="1" max="1" width="29.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="7.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="8.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="7.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="5.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="8.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="9.71" hidden="0" customWidth="1"/>
@@ -6323,34 +6771,34 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>41916</v>
+        <v>41915</v>
       </c>
       <c r="G2" t="n">
-        <v>3.867</v>
+        <v>22.067</v>
       </c>
       <c r="H2" t="n">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="I2" t="n">
-        <v>4.333</v>
+        <v>22.417</v>
       </c>
       <c r="J2" t="n">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="K2" t="n">
-        <v>6.117</v>
+        <v>22.567</v>
       </c>
       <c r="L2" t="n">
-        <v>260</v>
+        <v>114</v>
       </c>
       <c r="M2" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N2" t="n">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>8.433</v>
@@ -6429,7 +6877,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>41916</v>
@@ -6459,10 +6907,10 @@
         <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>5.9</v>
+        <v>9.983</v>
       </c>
       <c r="P4" t="n">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="Q4" t="s">
         <v>42</v>
@@ -6482,34 +6930,34 @@
         <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>41917</v>
       </c>
       <c r="G5" t="n">
-        <v>7.567</v>
+        <v>12.783</v>
       </c>
       <c r="H5" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I5" t="n">
-        <v>9.367</v>
+        <v>12.867</v>
       </c>
       <c r="J5" t="n">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="K5" t="n">
-        <v>9.517</v>
+        <v>13.15</v>
       </c>
       <c r="L5" t="n">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="M5" t="n">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O5" t="n">
         <v>21.5</v>
@@ -6774,7 +7222,7 @@
     <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="6.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="18.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="16.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="5.71" hidden="0" customWidth="1"/>
     <col min="9" max="9" width="5.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="7.71" hidden="0" customWidth="1"/>
@@ -6903,13 +7351,13 @@
         <v>166</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="K2" t="n">
         <v>50</v>
@@ -6918,19 +7366,19 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>800</v>
+        <v>1062</v>
       </c>
       <c r="N2" t="n">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="O2" t="n">
-        <v>1203</v>
+        <v>1513</v>
       </c>
       <c r="P2" t="n">
-        <v>66.5</v>
+        <v>70.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>33.5</v>
+        <v>29.8</v>
       </c>
       <c r="R2" t="s">
         <v>167</v>
@@ -6986,13 +7434,13 @@
         <v>169</v>
       </c>
       <c r="H3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J3" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K3" t="n">
         <v>50</v>
@@ -7001,19 +7449,19 @@
         <v>50</v>
       </c>
       <c r="M3" t="n">
-        <v>988</v>
+        <v>746</v>
       </c>
       <c r="N3" t="n">
-        <v>577</v>
+        <v>509</v>
       </c>
       <c r="O3" t="n">
-        <v>1565</v>
+        <v>1255</v>
       </c>
       <c r="P3" t="n">
-        <v>63.1</v>
+        <v>59.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>36.9</v>
+        <v>40.6</v>
       </c>
       <c r="R3" t="s">
         <v>170</v>
@@ -7063,19 +7511,19 @@
         <v>141</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>41916</v>
+        <v>41915</v>
       </c>
       <c r="G4" t="s">
         <v>172</v>
       </c>
       <c r="H4" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J4" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K4" t="n">
         <v>50</v>
@@ -7084,19 +7532,19 @@
         <v>50</v>
       </c>
       <c r="M4" t="n">
-        <v>778</v>
+        <v>946</v>
       </c>
       <c r="N4" t="n">
-        <v>334</v>
+        <v>473</v>
       </c>
       <c r="O4" t="n">
-        <v>1112</v>
+        <v>1419</v>
       </c>
       <c r="P4" t="n">
-        <v>70</v>
+        <v>66.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>30</v>
+        <v>33.3</v>
       </c>
       <c r="R4" t="s">
         <v>173</v>
@@ -7152,13 +7600,13 @@
         <v>174</v>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K5" t="n">
         <v>50</v>
@@ -7167,19 +7615,19 @@
         <v>50</v>
       </c>
       <c r="M5" t="n">
-        <v>1012</v>
+        <v>1032</v>
       </c>
       <c r="N5" t="n">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="O5" t="n">
         <v>1629</v>
       </c>
       <c r="P5" t="n">
-        <v>62.1</v>
+        <v>63.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>37.9</v>
+        <v>36.6</v>
       </c>
       <c r="R5" t="s">
         <v>167</v>
@@ -7283,7 +7731,7 @@
         <v>176</v>
       </c>
       <c r="X6" t="n">
-        <v>14.217</v>
+        <v>16.117</v>
       </c>
       <c r="Y6" t="n">
         <v>0.85</v>
